--- a/learning_rate_epochs_table.xlsx
+++ b/learning_rate_epochs_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\dev\workspace\InterviewResultClassifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1372AC-D1E1-4415-AB01-9F6DFE465135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7B53CC-3D18-4E9F-8456-A92497E30B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -469,9 +469,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -784,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:R29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,59 +810,59 @@
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -886,40 +885,40 @@
       <c r="F2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2">
         <v>0.5333</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2">
         <v>0.5333</v>
       </c>
-      <c r="I2" s="5">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
         <v>0.69569999999999999</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M2" s="5">
-        <v>1</v>
-      </c>
-      <c r="N2" s="5">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <v>0.7097</v>
       </c>
-      <c r="O2" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="P2" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>1</v>
-      </c>
-      <c r="R2" s="5">
+      <c r="O2">
+        <v>0.85</v>
+      </c>
+      <c r="P2">
+        <v>0.85</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
         <v>0.91890000000000005</v>
       </c>
     </row>
@@ -942,40 +941,40 @@
       <c r="F3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3">
         <v>0.53339999999999999</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3">
         <v>0.5333</v>
       </c>
-      <c r="I3" s="5">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>0.69569999999999999</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M3" s="5">
-        <v>1</v>
-      </c>
-      <c r="N3" s="5">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>0.7097</v>
       </c>
-      <c r="O3" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="P3" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>1</v>
-      </c>
-      <c r="R3" s="5">
+      <c r="O3">
+        <v>0.85</v>
+      </c>
+      <c r="P3">
+        <v>0.85</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
         <v>0.91890000000000005</v>
       </c>
     </row>
@@ -998,40 +997,40 @@
       <c r="F4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4">
         <v>0.5333</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4">
         <v>0.5333</v>
       </c>
-      <c r="I4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>0.69569999999999999</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M4" s="5">
-        <v>1</v>
-      </c>
-      <c r="N4" s="5">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>0.7097</v>
       </c>
-      <c r="O4" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="P4" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>1</v>
-      </c>
-      <c r="R4" s="5">
+      <c r="O4">
+        <v>0.85</v>
+      </c>
+      <c r="P4">
+        <v>0.85</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
         <v>0.91890000000000005</v>
       </c>
     </row>
@@ -1054,40 +1053,40 @@
       <c r="F5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5">
         <v>0.55000000000000004</v>
       </c>
       <c r="H5" s="4">
         <v>0.54239999999999999</v>
       </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>0.70330000000000004</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M5" s="5">
-        <v>1</v>
-      </c>
-      <c r="N5" s="5">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>0.7097</v>
       </c>
-      <c r="O5" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="P5" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>1</v>
-      </c>
-      <c r="R5" s="5">
+      <c r="O5">
+        <v>0.85</v>
+      </c>
+      <c r="P5">
+        <v>0.85</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
         <v>0.91890000000000005</v>
       </c>
     </row>
@@ -1110,40 +1109,40 @@
       <c r="F6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6">
         <v>0.83330000000000004</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6">
         <v>0.76190000000000002</v>
       </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>0.8649</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6">
         <v>0.9</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6">
         <v>0.84619999999999995</v>
       </c>
-      <c r="M6" s="5">
-        <v>1</v>
-      </c>
-      <c r="N6" s="5">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>0.91669999999999996</v>
       </c>
-      <c r="O6" s="5">
-        <v>1</v>
-      </c>
-      <c r="P6" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>1</v>
-      </c>
-      <c r="R6" s="5">
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
         <v>1</v>
       </c>
     </row>
@@ -1166,40 +1165,40 @@
       <c r="F7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7">
         <v>0.9</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7">
         <v>0.86109999999999998</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7">
         <v>0.96879999999999999</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7">
         <v>0.91180000000000005</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7">
         <v>0.95</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7">
         <v>0.91669999999999996</v>
       </c>
-      <c r="M7" s="5">
-        <v>1</v>
-      </c>
-      <c r="N7" s="5">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>0.95650000000000002</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7">
         <v>0.9</v>
       </c>
-      <c r="P7" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5">
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
         <v>0.88239999999999996</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7">
         <v>0.9375</v>
       </c>
     </row>
@@ -1231,7 +1230,7 @@
       <c r="I8" s="4">
         <v>0.75</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8">
         <v>0.8276</v>
       </c>
       <c r="K8" s="4">
@@ -1278,40 +1277,40 @@
       <c r="F9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="G9">
+        <v>0.85</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>0.71879999999999999</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9">
         <v>0.83640000000000003</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9">
         <v>0.7</v>
       </c>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
         <v>0.45450000000000002</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9">
         <v>0.625</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9">
         <v>0.7</v>
       </c>
-      <c r="P9" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="5">
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
         <v>0.64710000000000001</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9">
         <v>0.78569999999999995</v>
       </c>
     </row>
@@ -1334,40 +1333,40 @@
       <c r="F10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10">
         <v>0.9</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10">
         <v>0.88239999999999996</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10">
         <v>0.9375</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10">
         <v>0.90910000000000002</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10">
         <v>0.9</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10">
         <v>0.90910000000000002</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10">
         <v>0.90910000000000002</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10">
         <v>0.90910000000000002</v>
       </c>
-      <c r="O10" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="P10" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="5">
+      <c r="O10">
+        <v>0.85</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
         <v>0.82350000000000001</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10">
         <v>0.9032</v>
       </c>
     </row>
@@ -1390,40 +1389,40 @@
       <c r="F11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11">
         <v>0.81669999999999998</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11">
         <v>0.92</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11">
         <v>0.71879999999999999</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11">
         <v>0.80700000000000005</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11">
         <v>0.7</v>
       </c>
-      <c r="L11" s="5">
-        <v>1</v>
-      </c>
-      <c r="M11" s="5">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>0.45450000000000002</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11">
         <v>0.625</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11">
         <v>0.8</v>
       </c>
-      <c r="P11" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5">
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
         <v>0.76470000000000005</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11">
         <v>0.86670000000000003</v>
       </c>
     </row>
@@ -1446,40 +1445,40 @@
       <c r="F12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12">
         <v>0.83330000000000004</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12">
         <v>0.92310000000000003</v>
       </c>
       <c r="I12" s="4">
         <v>0.75</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12">
         <v>0.8276</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12">
         <v>0.7</v>
       </c>
-      <c r="L12" s="5">
-        <v>1</v>
-      </c>
-      <c r="M12" s="5">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>0.45450000000000002</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12">
         <v>0.625</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12">
         <v>0.75</v>
       </c>
-      <c r="P12" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="5">
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
         <v>0.70589999999999997</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12">
         <v>0.8276</v>
       </c>
     </row>
@@ -2999,7 +2998,7 @@
       <c r="A40" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>10000</v>
       </c>
       <c r="C40" s="2">
@@ -3055,7 +3054,7 @@
       <c r="A41" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>20000</v>
       </c>
       <c r="C41" s="2">
@@ -3111,7 +3110,7 @@
       <c r="A42" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <v>50000</v>
       </c>
       <c r="C42" s="2">
@@ -3167,7 +3166,7 @@
       <c r="A43" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="8">
         <v>100000</v>
       </c>
       <c r="C43" s="2">
@@ -3223,7 +3222,7 @@
       <c r="A44" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <v>200000</v>
       </c>
       <c r="C44" s="2">
@@ -3279,7 +3278,7 @@
       <c r="A45" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="8">
         <v>500000</v>
       </c>
       <c r="C45" s="2">
@@ -3332,7 +3331,7 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B46" s="4">
@@ -3388,7 +3387,7 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B47" s="4">
@@ -3444,7 +3443,7 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="A48">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B48" s="4">
@@ -3500,7 +3499,7 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B49" s="4">
@@ -3556,7 +3555,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="A50">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B50" s="4">
@@ -3612,7 +3611,7 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="105" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="A51">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B51" s="4">
@@ -3668,7 +3667,7 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="A52">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B52" s="4">
@@ -3720,10 +3719,10 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="A53">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53">
         <v>50000</v>
       </c>
       <c r="C53">
@@ -3774,7 +3773,7 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+      <c r="A54">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B54" s="4">
@@ -3830,7 +3829,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="A55">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B55" s="4">
@@ -3886,7 +3885,7 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="A56">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B56" s="4">
